--- a/Data_analysis/직장인을_위한_실무_엑셀/Chapter02/Section04/중첩함수.xlsx
+++ b/Data_analysis/직장인을_위한_실무_엑셀/Chapter02/Section04/중첩함수.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_집필원고\직장인실무2019\Part2\Section04\04_Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을_위한_실무_엑셀/Chapter02/Section04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A55986A-E88D-4527-8C97-E0DC0DE59DFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A422E40E-5794-124B-B054-75BB0E067BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8710" windowHeight="5240" xr2:uid="{AB91D47A-7E74-4A0B-9B37-F5CC960D93DC}"/>
+    <workbookView xWindow="-38400" yWindow="-220" windowWidth="38400" windowHeight="21100" xr2:uid="{AB91D47A-7E74-4A0B-9B37-F5CC960D93DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -108,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,19 +556,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E74616-E1D7-4B95-8D5B-A6B1205B7D2F}">
   <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="14.08203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="9" width="10.5" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" ht="19.5" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +580,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="19.5" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -595,7 +606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" ht="19.5" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -619,11 +630,11 @@
         <v>115</v>
       </c>
       <c r="I4" s="6">
-        <f>AVERAGE(C4:G4)</f>
+        <f>IFERROR(AVERAGE(C4:G4), 0)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="19.5" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
@@ -647,11 +658,11 @@
         <v>105</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" ref="I5:I14" si="1">AVERAGE(C5:G5)</f>
+        <f t="shared" ref="I5:I14" si="1">IFERROR(AVERAGE(C5:G5), 0)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" ht="19.5" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -679,7 +690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" ht="19.5" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -702,12 +713,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="6" t="e">
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="19.5" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -735,7 +746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" ht="19.5" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -763,7 +774,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" ht="19.5" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -791,7 +802,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" ht="19.5" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -819,7 +830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" ht="19.5" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -847,7 +858,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" ht="19.5" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -870,12 +881,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="6" t="e">
+      <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="19.5" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
